--- a/results/minimal_seats-Greece.xlsx
+++ b/results/minimal_seats-Greece.xlsx
@@ -19,52 +19,52 @@
     <t>Key</t>
   </si>
   <si>
-    <t>KKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND </t>
-  </si>
-  <si>
-    <t>PAS</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>DIK</t>
-  </si>
-  <si>
-    <t>SYN</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>LAO</t>
-  </si>
-  <si>
-    <t>EL,</t>
-  </si>
-  <si>
-    <t>KIN</t>
-  </si>
-  <si>
-    <t>MeR</t>
-  </si>
-  <si>
-    <t>ANE</t>
-  </si>
-  <si>
-    <t>DIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP </t>
+    <t>KKE - Communist Party of Greece  (Kommounistiko Komma Elladas, KKE)</t>
+  </si>
+  <si>
+    <t>ND - New Democracy  (Nea Dimokratia, ND)</t>
+  </si>
+  <si>
+    <t>PASOK - Pan-Hellenic Socialist Movement  (Panellinio Sosialistiko Kinima, PASOK)</t>
+  </si>
+  <si>
+    <t>POLAN - Political Spring  (Politiki Anixi, POLAN)</t>
+  </si>
+  <si>
+    <t>DIKKI - Democratic Social Movement/ Dimokratiko Koinoniko Kinima (DIKKI)  (Dimokratiko Koinoniko Kinima, DIKKI)</t>
+  </si>
+  <si>
+    <t>SYN - Coalition of the Left and Progress  (Synaspismos tis Aristeras kai tis Proodou, SYN)</t>
+  </si>
+  <si>
+    <t>SYRIZA - Coalition of the Radical Left  (Synaspismos tis Rizospastikis Aristeras, SYRIZA)</t>
+  </si>
+  <si>
+    <t>LAOS - Popular Orthodox Rally (Laikos Orthodoxos Synagermos, LAOS)</t>
+  </si>
+  <si>
+    <t>EL, GS - Greek Solution (Elliniki Lysi, EL, GS)</t>
+  </si>
+  <si>
+    <t>KINAL - Movement for Change</t>
+  </si>
+  <si>
+    <t>MeRA25 - European Realistic Disobedience Front</t>
+  </si>
+  <si>
+    <t>ANEL - Independent Hellenes (Anexartitoi Ellines, ANEL)</t>
+  </si>
+  <si>
+    <t>DIMAR - Democratic Left  (Dimokratiki Aristera, DIMAR)</t>
+  </si>
+  <si>
+    <t>HA - Golden Dawn (Chrysi Avgi, HA)</t>
+  </si>
+  <si>
+    <t>EK - Union of Centrists (Enosi Kentroon, EK)</t>
+  </si>
+  <si>
+    <t>TP - The River (To Potami , TP)</t>
   </si>
   <si>
     <t>1993</t>
